--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/1.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/1.xlsx
@@ -479,13 +479,13 @@
         <v>-13.8489365825129</v>
       </c>
       <c r="E2" t="n">
-        <v>-21.62135921925075</v>
+        <v>-21.6080366755384</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.06412923777725886</v>
+        <v>-0.068260448579802</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.922980346585943</v>
+        <v>-8.920667846337892</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-13.91599399510932</v>
       </c>
       <c r="E3" t="n">
-        <v>-21.76781919796292</v>
+        <v>-21.75489266380679</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1974573440448964</v>
+        <v>-0.2011729892637518</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.433820542530501</v>
+        <v>-8.432549400745105</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-13.84067800273087</v>
       </c>
       <c r="E4" t="n">
-        <v>-21.94419012068687</v>
+        <v>-21.93387920520455</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3569660820848635</v>
+        <v>-0.3593470284290511</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.328584669720158</v>
+        <v>-8.327279304886691</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-13.58625972384976</v>
       </c>
       <c r="E5" t="n">
-        <v>-22.06176584682931</v>
+        <v>-22.05208072422595</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3843738545807887</v>
+        <v>-0.3861681201009465</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.797247403423841</v>
+        <v>-7.798948777813528</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-13.1715431675541</v>
       </c>
       <c r="E6" t="n">
-        <v>-21.98809340235177</v>
+        <v>-21.98144435301277</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.5067212514253353</v>
+        <v>-0.5085350729729607</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.103820003461826</v>
+        <v>-7.10566804805752</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-12.61911210597059</v>
       </c>
       <c r="E7" t="n">
-        <v>-22.25738967859518</v>
+        <v>-22.25120019590166</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.6576351153932659</v>
+        <v>-0.6581093490593567</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.512240394551384</v>
+        <v>-6.515662699358225</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-11.94002335506085</v>
       </c>
       <c r="E8" t="n">
-        <v>-22.64448168629004</v>
+        <v>-22.63825798054846</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.8275329930254273</v>
+        <v>-0.8276503291902332</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.091981364271375</v>
+        <v>-6.095579673325425</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-11.17084715203751</v>
       </c>
       <c r="E9" t="n">
-        <v>-22.91316194766821</v>
+        <v>-22.90844405604164</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.9569841168476013</v>
+        <v>-0.9558205332132755</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.765542375767464</v>
+        <v>-5.770284712428372</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-10.32471537490313</v>
       </c>
       <c r="E10" t="n">
-        <v>-23.35838424701069</v>
+        <v>-23.35507927836866</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.055732277545549</v>
+        <v>-1.054818033261436</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.46425732759383</v>
+        <v>-5.468540097609248</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-9.4223416431948</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.76835680684271</v>
+        <v>-23.76711499909852</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.318482173594159</v>
+        <v>-1.316668352046534</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.072608765499008</v>
+        <v>-5.077145763871505</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-8.483057522001392</v>
       </c>
       <c r="E12" t="n">
-        <v>-24.23352136519533</v>
+        <v>-24.2327586801241</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.238698470532974</v>
+        <v>-1.236718422751874</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.91466939866332</v>
+        <v>-4.917739694975743</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-7.509349931490446</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.81851059284918</v>
+        <v>-24.81893104743973</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.170790165151526</v>
+        <v>-1.168008320244251</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.843617461866446</v>
+        <v>-4.844209031697342</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-6.524440882676568</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.41905175134668</v>
+        <v>-25.41974110131491</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.104734793372638</v>
+        <v>-1.10156182791601</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.714709017806499</v>
+        <v>-4.714567236607358</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-5.531804842305311</v>
       </c>
       <c r="E15" t="n">
-        <v>-26.03222121458141</v>
+        <v>-26.03374658472389</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.062283546747215</v>
+        <v>-1.058699904713767</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.734729500926515</v>
+        <v>-4.733204130784038</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-4.546117058249046</v>
       </c>
       <c r="E16" t="n">
-        <v>-26.80502164102779</v>
+        <v>-26.80642723050203</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9689670726784098</v>
+        <v>-0.9651438693084823</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.690004866107977</v>
+        <v>-4.686519004211867</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-3.580094075866514</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.56205257582494</v>
+        <v>-27.56438707660389</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8452898659660624</v>
+        <v>-0.8416720008845453</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.721289621049366</v>
+        <v>-4.716698843601333</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-2.639737096558048</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.4468137040271</v>
+        <v>-28.44767172473225</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6761302283708052</v>
+        <v>-0.6732603813399261</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.978114040775275</v>
+        <v>-4.972173897431974</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-1.742351907193846</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.09585625514783</v>
+        <v>-29.09817853340961</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.4244930449306928</v>
+        <v>-0.4213689695427341</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.274407412937789</v>
+        <v>-5.265074298828848</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-0.8904285969856304</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.51842534117246</v>
+        <v>-29.52081606553038</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.2206801266627424</v>
+        <v>-0.2174729381580462</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.59762943492327</v>
+        <v>-5.588584772219478</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-0.08982797898995168</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.11446616884896</v>
+        <v>-30.11620909979701</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1919031628362101</v>
+        <v>0.1948072329151575</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.927441838165352</v>
+        <v>-5.916774025181744</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.6593601195069982</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.66974734627599</v>
+        <v>-30.67171761604336</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2498183381816845</v>
+        <v>0.2516419377430438</v>
       </c>
       <c r="G22" t="n">
-        <v>-6.197926143077422</v>
+        <v>-6.186828097489525</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.359837359268996</v>
       </c>
       <c r="E23" t="n">
-        <v>-30.99499586160781</v>
+        <v>-30.99760903577817</v>
       </c>
       <c r="F23" t="n">
-        <v>0.534329203794933</v>
+        <v>0.5362212494524291</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.495304874764391</v>
+        <v>-6.483414810064054</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.010450308720285</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.2003023714736</v>
+        <v>-31.20332133321392</v>
       </c>
       <c r="F24" t="n">
-        <v>0.725518706332509</v>
+        <v>0.7282174381230461</v>
       </c>
       <c r="G24" t="n">
-        <v>-6.758108549888536</v>
+        <v>-6.745817586625113</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.61271549939911</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.49783021787001</v>
+        <v>-31.50176831290131</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9657107246971735</v>
+        <v>0.9674756561761297</v>
       </c>
       <c r="G25" t="n">
-        <v>-6.815334375265776</v>
+        <v>-6.801948274464163</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>3.165689257028488</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.4102485488561</v>
+        <v>-31.41398130559898</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9982275093690248</v>
+        <v>0.9985795178634427</v>
       </c>
       <c r="G26" t="n">
-        <v>-6.99834945832187</v>
+        <v>-6.985442480193215</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>3.666767380150179</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.5094904992476</v>
+        <v>-31.51357526448491</v>
       </c>
       <c r="F27" t="n">
-        <v>1.242907636037517</v>
+        <v>1.244071219671843</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.25650368791558</v>
+        <v>-7.243943829274476</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>4.110145587308529</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.3308510773374</v>
+        <v>-31.33391648464295</v>
       </c>
       <c r="F28" t="n">
-        <v>1.402127922672336</v>
+        <v>1.403188837162457</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.441361926560502</v>
+        <v>-7.427706930381208</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>4.485965877348842</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.13483368051874</v>
+        <v>-31.13840265553159</v>
       </c>
       <c r="F29" t="n">
-        <v>1.422930646891059</v>
+        <v>1.42413334258032</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.745331039504071</v>
+        <v>-7.730923136267273</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>4.780889653339686</v>
       </c>
       <c r="E30" t="n">
-        <v>-31.02900868238093</v>
+        <v>-31.03218164783756</v>
       </c>
       <c r="F30" t="n">
-        <v>1.552005317184481</v>
+        <v>1.552694667152716</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.787679616985288</v>
+        <v>-7.772205910251503</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>4.981121879331185</v>
       </c>
       <c r="E31" t="n">
-        <v>-30.74638497341832</v>
+        <v>-30.74972905411529</v>
       </c>
       <c r="F31" t="n">
-        <v>1.45628834074402</v>
+        <v>1.458067939243577</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.727999510160858</v>
+        <v>-7.713743166136934</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>5.072586963746927</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.33912581239743</v>
+        <v>-30.34293190424333</v>
       </c>
       <c r="F32" t="n">
-        <v>1.435236277175084</v>
+        <v>1.435774067930445</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.721951808666484</v>
+        <v>-7.707680797621959</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>5.043130227123816</v>
       </c>
       <c r="E33" t="n">
-        <v>-29.84520411565362</v>
+        <v>-29.84799329407119</v>
       </c>
       <c r="F33" t="n">
-        <v>1.37562461644679</v>
+        <v>1.377233099706005</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.973745440326338</v>
+        <v>-7.959767769693828</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>4.884396032425407</v>
       </c>
       <c r="E34" t="n">
-        <v>-29.27143271425591</v>
+        <v>-29.2732147572589</v>
       </c>
       <c r="F34" t="n">
-        <v>1.37698864936266</v>
+        <v>1.378162011010719</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.984291028138274</v>
+        <v>-7.9697315656886</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>4.593405033242824</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.79086533976907</v>
+        <v>-28.79401874919823</v>
       </c>
       <c r="F35" t="n">
-        <v>1.393225041167684</v>
+        <v>1.394129507438064</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.958066395304142</v>
+        <v>-7.944826964708536</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>4.173019369663031</v>
       </c>
       <c r="E36" t="n">
-        <v>-28.15887320009671</v>
+        <v>-28.16269884797007</v>
       </c>
       <c r="F36" t="n">
-        <v>1.319894827170827</v>
+        <v>1.320765070393138</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.781250572955296</v>
+        <v>-7.768949831678137</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>3.632350200588465</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.51582701589826</v>
+        <v>-27.51893886876905</v>
       </c>
       <c r="F37" t="n">
-        <v>1.409065423416489</v>
+        <v>1.41007744783794</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.690515494512221</v>
+        <v>-7.679275667725183</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>2.983589913033281</v>
       </c>
       <c r="E38" t="n">
-        <v>-26.93264427628174</v>
+        <v>-26.93648214667227</v>
       </c>
       <c r="F38" t="n">
-        <v>1.242990749154255</v>
+        <v>1.24459923241347</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.618343975142823</v>
+        <v>-7.608746854663068</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>2.241176973310924</v>
       </c>
       <c r="E39" t="n">
-        <v>-26.16370616526022</v>
+        <v>-26.16800360229624</v>
       </c>
       <c r="F39" t="n">
-        <v>1.327463009800811</v>
+        <v>1.328729262579342</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.529672057597586</v>
+        <v>-7.520627394893793</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.423531457448635</v>
       </c>
       <c r="E40" t="n">
-        <v>-25.53307316949686</v>
+        <v>-25.53554700697152</v>
       </c>
       <c r="F40" t="n">
-        <v>1.322970012490116</v>
+        <v>1.324290044344183</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.190022972539271</v>
+        <v>-7.183188140939324</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5491402785614534</v>
       </c>
       <c r="E41" t="n">
-        <v>-24.959509550891</v>
+        <v>-24.96258473621029</v>
       </c>
       <c r="F41" t="n">
-        <v>1.379550488960923</v>
+        <v>1.380146947798687</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.177257775609756</v>
+        <v>-7.171073181923108</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-0.3604613978816866</v>
       </c>
       <c r="E42" t="n">
-        <v>-24.28185408708165</v>
+        <v>-24.28430836852885</v>
       </c>
       <c r="F42" t="n">
-        <v>1.376524193710303</v>
+        <v>1.378064230873381</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.914014089867587</v>
+        <v>-6.907741494057335</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-1.284921611456219</v>
       </c>
       <c r="E43" t="n">
-        <v>-23.59996474332556</v>
+        <v>-23.60215501840194</v>
       </c>
       <c r="F43" t="n">
-        <v>1.329609283815387</v>
+        <v>1.330997761765591</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.848525842885262</v>
+        <v>-6.84423329485611</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-2.205271752955389</v>
       </c>
       <c r="E44" t="n">
-        <v>-22.91186636084848</v>
+        <v>-22.9141397490416</v>
       </c>
       <c r="F44" t="n">
-        <v>1.44126442264199</v>
+        <v>1.44243778429005</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.767881674615499</v>
+        <v>-6.763369121277337</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-3.101538362678738</v>
       </c>
       <c r="E45" t="n">
-        <v>-22.08061785730814</v>
+        <v>-22.08247567991756</v>
       </c>
       <c r="F45" t="n">
-        <v>1.485167704306887</v>
+        <v>1.486800632600436</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.609966752814147</v>
+        <v>-6.607067571742066</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-3.958769544810075</v>
       </c>
       <c r="E46" t="n">
-        <v>-21.55836436577055</v>
+        <v>-21.56042263766152</v>
       </c>
       <c r="F46" t="n">
-        <v>1.474558559405681</v>
+        <v>1.476851503626264</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.497372924669095</v>
+        <v>-6.494190181198734</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-4.760706523606462</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.86792414900422</v>
+        <v>-20.87079888504196</v>
       </c>
       <c r="F47" t="n">
-        <v>1.558067685699456</v>
+        <v>1.559588166835066</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.47375413249503</v>
+        <v>-6.471206959917366</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-5.498391720341467</v>
       </c>
       <c r="E48" t="n">
-        <v>-20.22246279541351</v>
+        <v>-20.22652067111304</v>
       </c>
       <c r="F48" t="n">
-        <v>1.604518139942014</v>
+        <v>1.606292849434705</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.444933437014566</v>
+        <v>-6.443324953755351</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-6.166003486898231</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.45478604816365</v>
+        <v>-19.45815946290183</v>
       </c>
       <c r="F49" t="n">
-        <v>1.748880734708279</v>
+        <v>1.750220322589814</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.201837348570954</v>
+        <v>-6.201480451069669</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-6.756947396094036</v>
       </c>
       <c r="E50" t="n">
-        <v>-19.05179987914445</v>
+        <v>-19.05648843672983</v>
       </c>
       <c r="F50" t="n">
-        <v>1.738824047583035</v>
+        <v>1.740931209542675</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.216944379789721</v>
+        <v>-6.215893243313334</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-7.276331462199654</v>
       </c>
       <c r="E51" t="n">
-        <v>-18.47511218515064</v>
+        <v>-18.47940473317979</v>
       </c>
       <c r="F51" t="n">
-        <v>1.71791376521324</v>
+        <v>1.719043125799497</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.277675623090539</v>
+        <v>-6.275729798357506</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-7.721610650337657</v>
       </c>
       <c r="E52" t="n">
-        <v>-18.01251435540314</v>
+        <v>-18.01559931873616</v>
       </c>
       <c r="F52" t="n">
-        <v>1.719884034980606</v>
+        <v>1.721243178889609</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.280413466936011</v>
+        <v>-6.279587224775502</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-8.103948001189448</v>
       </c>
       <c r="E53" t="n">
-        <v>-17.60886328145004</v>
+        <v>-17.61229536427062</v>
       </c>
       <c r="F53" t="n">
-        <v>1.80653190368294</v>
+        <v>1.807685709303532</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.187449001361623</v>
+        <v>-6.186803652455191</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-8.432099451527826</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.97943298137595</v>
+        <v>-16.98308018049866</v>
       </c>
       <c r="F54" t="n">
-        <v>1.859914969662784</v>
+        <v>1.861489229873931</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.191457986992494</v>
+        <v>-6.190431295550441</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-8.710348668878595</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.77418269508912</v>
+        <v>-16.77705743112687</v>
       </c>
       <c r="F55" t="n">
-        <v>1.850953420075729</v>
+        <v>1.851882331380443</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.419427488189871</v>
+        <v>-6.419632826478281</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-8.955733998642289</v>
       </c>
       <c r="E56" t="n">
-        <v>-16.22382230307364</v>
+        <v>-16.22568501468993</v>
       </c>
       <c r="F56" t="n">
-        <v>1.886604058149273</v>
+        <v>1.886657837224809</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.321090004068743</v>
+        <v>-6.320874887766599</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-9.165004479656904</v>
       </c>
       <c r="E57" t="n">
-        <v>-16.12877512057394</v>
+        <v>-16.13032982475762</v>
       </c>
       <c r="F57" t="n">
-        <v>1.926762360554112</v>
+        <v>1.926928586787588</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.501396577320566</v>
+        <v>-6.501557914547175</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-9.351670954241481</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.9151939665859</v>
+        <v>-15.91612287789061</v>
       </c>
       <c r="F58" t="n">
-        <v>1.815087665700041</v>
+        <v>1.814608543027084</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.658103914425792</v>
+        <v>-6.657683459835237</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-9.515815738810591</v>
       </c>
       <c r="E59" t="n">
-        <v>-15.66043270775783</v>
+        <v>-15.66031537159302</v>
       </c>
       <c r="F59" t="n">
-        <v>1.870123216000903</v>
+        <v>1.869844542609489</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.425338297491971</v>
+        <v>-6.425524079752914</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-9.651581478943635</v>
       </c>
       <c r="E60" t="n">
-        <v>-15.43797311729947</v>
+        <v>-15.43746466058531</v>
       </c>
       <c r="F60" t="n">
-        <v>1.934540770479374</v>
+        <v>1.934633661609846</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.445124108282376</v>
+        <v>-6.44700148691927</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-9.763182732816052</v>
       </c>
       <c r="E61" t="n">
-        <v>-15.29766839823274</v>
+        <v>-15.29653414863962</v>
       </c>
       <c r="F61" t="n">
-        <v>1.881465711932145</v>
+        <v>1.881250595630001</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.285698483359146</v>
+        <v>-6.286578504595191</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-9.832188928654896</v>
       </c>
       <c r="E62" t="n">
-        <v>-15.27058330019003</v>
+        <v>-15.26881836871108</v>
       </c>
       <c r="F62" t="n">
-        <v>1.876610928113299</v>
+        <v>1.876532704003428</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.367408455125895</v>
+        <v>-6.368391145506146</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-9.86150284615039</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.22223102227624</v>
+        <v>-15.21953717949257</v>
       </c>
       <c r="F63" t="n">
-        <v>1.863136825188081</v>
+        <v>1.863151492208682</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.400751481958255</v>
+        <v>-6.402457745354809</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-9.838797468338367</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.2718886650235</v>
+        <v>-15.26892592686215</v>
       </c>
       <c r="F64" t="n">
-        <v>1.709064662784124</v>
+        <v>1.708678431241637</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.392552617442439</v>
+        <v>-6.394356660976331</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-9.753946355313492</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.32572640864196</v>
+        <v>-15.32131163544114</v>
       </c>
       <c r="F65" t="n">
-        <v>1.700714239055433</v>
+        <v>1.700826686213372</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.495192427606452</v>
+        <v>-6.497011138160944</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-9.606696287637984</v>
       </c>
       <c r="E66" t="n">
-        <v>-15.3350008546685</v>
+        <v>-15.33018029389772</v>
       </c>
       <c r="F66" t="n">
-        <v>1.794861844291614</v>
+        <v>1.794905845353416</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.446879261747598</v>
+        <v>-6.447954843258319</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-9.381083774992318</v>
       </c>
       <c r="E67" t="n">
-        <v>-15.21931717418356</v>
+        <v>-15.21361659217674</v>
       </c>
       <c r="F67" t="n">
-        <v>1.617928685777962</v>
+        <v>1.617879795709293</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.200952438328042</v>
+        <v>-6.203098712342618</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-9.082853268313105</v>
       </c>
       <c r="E68" t="n">
-        <v>-15.3532808513439</v>
+        <v>-15.34699358851304</v>
       </c>
       <c r="F68" t="n">
-        <v>1.582194934587681</v>
+        <v>1.581828259072662</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.322370923867875</v>
+        <v>-6.324570976957987</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-8.706237627072058</v>
       </c>
       <c r="E69" t="n">
-        <v>-15.26601207876947</v>
+        <v>-15.25898657590171</v>
       </c>
       <c r="F69" t="n">
-        <v>1.542535310883267</v>
+        <v>1.543190437803433</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.194831401730664</v>
+        <v>-6.195212744266284</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-8.25272350060264</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.31850534549953</v>
+        <v>-15.31104961002749</v>
       </c>
       <c r="F70" t="n">
-        <v>1.476235488761033</v>
+        <v>1.475839479204813</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.132486786163765</v>
+        <v>-6.133513477605818</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-7.731528452597846</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.3462162364212</v>
+        <v>-15.33831560132427</v>
       </c>
       <c r="F71" t="n">
-        <v>1.368168880974745</v>
+        <v>1.36773375936359</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.138725158925949</v>
+        <v>-6.139365618825515</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-7.142366944357988</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.46455464763488</v>
+        <v>-15.45672245863408</v>
       </c>
       <c r="F72" t="n">
-        <v>1.290326113639725</v>
+        <v>1.289934993090372</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.002600540730436</v>
+        <v>-6.003285001691804</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-6.501676143630466</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.57578444286406</v>
+        <v>-15.56761980139632</v>
       </c>
       <c r="F73" t="n">
-        <v>1.222794261787029</v>
+        <v>1.222051132743258</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.153426402574762</v>
+        <v>-6.153719742986777</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-5.815053442593887</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.68738091360826</v>
+        <v>-15.68000829125296</v>
       </c>
       <c r="F74" t="n">
-        <v>1.085012270263632</v>
+        <v>1.084919379133161</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.066851868975432</v>
+        <v>-6.066876314009766</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-5.092579308567353</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.94676228392557</v>
+        <v>-15.93827985701147</v>
       </c>
       <c r="F75" t="n">
-        <v>1.030431397601393</v>
+        <v>1.029849605784231</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.104399441713339</v>
+        <v>-6.104013210170852</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-4.344534811257326</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.97110464911594</v>
+        <v>-15.96224576867309</v>
       </c>
       <c r="F76" t="n">
-        <v>0.8098785198211265</v>
+        <v>0.8104114215696201</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.232418086523507</v>
+        <v>-6.230379370660003</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-3.573352530824682</v>
       </c>
       <c r="E77" t="n">
-        <v>-16.02243433221168</v>
+        <v>-16.01472436838256</v>
       </c>
       <c r="F77" t="n">
-        <v>0.6662981661535682</v>
+        <v>0.6663763902634389</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.17032281030682</v>
+        <v>-6.167247624987531</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-2.792407199157618</v>
       </c>
       <c r="E78" t="n">
-        <v>-16.15702380225098</v>
+        <v>-16.15069742736519</v>
       </c>
       <c r="F78" t="n">
-        <v>0.6848177241654421</v>
+        <v>0.6845146057396934</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.143066597023769</v>
+        <v>-6.140045190780016</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-2.00682553052357</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.28581002113926</v>
+        <v>-16.27878940727836</v>
       </c>
       <c r="F79" t="n">
-        <v>0.398615262176241</v>
+        <v>0.3984245909084313</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.164700452409868</v>
+        <v>-6.16120970150689</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-1.226244488772168</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.75615203776394</v>
+        <v>-16.75068612808673</v>
       </c>
       <c r="F80" t="n">
-        <v>0.3791227917978511</v>
+        <v>0.3794650222785351</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.133435253495946</v>
+        <v>-6.129118260432461</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.4601737599185293</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.21445731948228</v>
+        <v>-17.2103309976866</v>
       </c>
       <c r="F81" t="n">
-        <v>0.2136152423321794</v>
+        <v>0.212999227466948</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.240284498572373</v>
+        <v>-6.235258599513185</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.2850847416905408</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.64594150952873</v>
+        <v>-17.64218186324807</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.09180101664399747</v>
+        <v>-0.09238769746802726</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.291100835947087</v>
+        <v>-6.285796263496485</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.9986193286238062</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.12058096318943</v>
+        <v>-18.11778445126156</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.1035052990833919</v>
+        <v>-0.1038621965846766</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.344102559391312</v>
+        <v>-6.337248171763897</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>1.675271863450634</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.89669124728471</v>
+        <v>-18.89413918570018</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.2000436286774944</v>
+        <v>-0.2003516361101101</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.376394449747285</v>
+        <v>-6.368752932014297</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>2.315833193867716</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.58531275349655</v>
+        <v>-19.5824526844794</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.3577238781492353</v>
+        <v>-0.3579096604101781</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.478374243984264</v>
+        <v>-6.470053154296775</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>2.92471348903328</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.23467553456706</v>
+        <v>-20.23312571939025</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.5193202221213751</v>
+        <v>-0.5191979969497023</v>
       </c>
       <c r="G86" t="n">
-        <v>-6.736332913303298</v>
+        <v>-6.727606036045854</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>3.504542582612752</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.98561232230459</v>
+        <v>-20.98426295640932</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.6203319929987049</v>
+        <v>-0.620327103991838</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.069875628784836</v>
+        <v>-7.060640294813234</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>4.055527723766455</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.83362034138473</v>
+        <v>-21.83244697973667</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7359667834149772</v>
+        <v>-0.7355561068381563</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.365484539985982</v>
+        <v>-7.354137155047872</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>4.570782359645793</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.81969391438654</v>
+        <v>-22.81952768815306</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.947338106299178</v>
+        <v>-0.9472012141069045</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.442105055604273</v>
+        <v>-7.430850561796635</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>5.043211247766336</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.87319667009683</v>
+        <v>-23.87514249482987</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.194917414039751</v>
+        <v>-1.195328090616572</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.806683186676987</v>
+        <v>-7.795497138965485</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>5.459601775471092</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.08242896153898</v>
+        <v>-25.08496146709604</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.120780513909853</v>
+        <v>-1.121728981242034</v>
       </c>
       <c r="G91" t="n">
-        <v>-8.178198818493854</v>
+        <v>-8.166758542425272</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>5.803509882924628</v>
       </c>
       <c r="E92" t="n">
-        <v>-26.34877463120042</v>
+        <v>-26.35194759665705</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.331755827237834</v>
+        <v>-1.333354532483315</v>
       </c>
       <c r="G92" t="n">
-        <v>-8.465530641069313</v>
+        <v>-8.454525486611887</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>6.060304507525064</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.60168530999158</v>
+        <v>-27.60643742466622</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.622597956743737</v>
+        <v>-1.623028189348025</v>
       </c>
       <c r="G93" t="n">
-        <v>-8.770585113537338</v>
+        <v>-8.760591983501364</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>6.210129991461394</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.09871387966154</v>
+        <v>-29.10458802141214</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.864383791347016</v>
+        <v>-1.864990028198513</v>
       </c>
       <c r="G94" t="n">
-        <v>-9.106034541696973</v>
+        <v>-9.096119635770869</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>6.244743163126863</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.73481513866776</v>
+        <v>-30.74002926449133</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.12413183717934</v>
+        <v>-2.124777186085772</v>
       </c>
       <c r="G95" t="n">
-        <v>-9.375531267221925</v>
+        <v>-9.366833724005684</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>6.143375447543192</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.56981830854411</v>
+        <v>-32.57619357349857</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.144895449343128</v>
+        <v>-2.145042119549135</v>
       </c>
       <c r="G96" t="n">
-        <v>-9.726253952833803</v>
+        <v>-9.718001309242451</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>5.911170651553753</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.28975381280076</v>
+        <v>-34.29595796251488</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.507283305339465</v>
+        <v>-2.505968162492264</v>
       </c>
       <c r="G97" t="n">
-        <v>-10.08868092088507</v>
+        <v>-10.08064828260273</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>5.523723605355726</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.27588596294719</v>
+        <v>-36.28248856672096</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.901791936451432</v>
+        <v>-2.900814135078049</v>
       </c>
       <c r="G98" t="n">
-        <v>-10.51041154223203</v>
+        <v>-10.50462784710846</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>5.016385382999631</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.3055767197744</v>
+        <v>-38.31233577176791</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.179199075087054</v>
+        <v>-3.177742151040713</v>
       </c>
       <c r="G99" t="n">
-        <v>-10.84174931561659</v>
+        <v>-10.83698742292821</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>4.340353116143211</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.50551002921789</v>
+        <v>-40.5130073212483</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.541787380364934</v>
+        <v>-3.540012670872243</v>
       </c>
       <c r="G100" t="n">
-        <v>-11.03216146606232</v>
+        <v>-11.02634354789069</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>3.602150654269682</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.41657881243314</v>
+        <v>-42.424445224482</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.969252806766775</v>
+        <v>-3.96802566604318</v>
       </c>
       <c r="G101" t="n">
-        <v>-11.27808340047501</v>
+        <v>-11.27349262302698</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>2.650935963675223</v>
       </c>
       <c r="E102" t="n">
-        <v>-44.68560112241643</v>
+        <v>-44.69297863377861</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.214416945115092</v>
+        <v>-4.212158223942578</v>
       </c>
       <c r="G102" t="n">
-        <v>-11.42279800373569</v>
+        <v>-11.41767432453917</v>
       </c>
     </row>
   </sheetData>
